--- a/data/spring-cloud-shop/shop-platform-client_structure.xlsx
+++ b/data/spring-cloud-shop/shop-platform-client_structure.xlsx
@@ -222,13 +222,13 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>this$0</t>
+  </si>
+  <si>
     <t>val$cause</t>
   </si>
   <si>
     <t>java.lang.Throwable</t>
-  </si>
-  <si>
-    <t>this$0</t>
   </si>
   <si>
     <t>log</t>
@@ -3344,7 +3344,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -3352,13 +3352,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -3366,13 +3366,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -3380,7 +3380,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>24</v>
@@ -3400,7 +3400,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -3408,13 +3408,13 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
